--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV\CVHTML\CVHTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975B954B-D97D-4A86-AFCE-F6A50AE852A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB970AB-8247-46A6-B8CE-0E22576159B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -382,9 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -429,4 +429,28 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E37872-ACEC-4BBC-9321-DF1CD93FAC70}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A123D37-93E2-49DF-9372-406EAD994DEA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>